--- a/miniprogram/pages/猫咪档案.xlsx
+++ b/miniprogram/pages/猫咪档案.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CEDCA9-3370-5C4F-B9DD-916108756661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BBF520-3391-6249-87EE-AC80CCF01BF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
   <si>
     <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -313,6 +313,18 @@
   </si>
   <si>
     <t>最后补充的照片数</t>
+  </si>
+  <si>
+    <t>英杰和一帆的母亲</t>
+  </si>
+  <si>
+    <t>杰希之女</t>
+  </si>
+  <si>
+    <t>杰希之子</t>
+  </si>
+  <si>
+    <t>与杰希一家关系好</t>
   </si>
 </sst>
 </file>
@@ -322,7 +334,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,6 +433,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="PingFang TC"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -663,7 +682,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -938,6 +957,12 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="18" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -974,12 +999,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="20% - Accent2" xfId="1" builtinId="34"/>
@@ -1282,7 +1302,7 @@
   <dimension ref="A1:W119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1336,20 +1356,20 @@
       <c r="A3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="103"/>
+      <c r="C3" s="105"/>
       <c r="D3" s="68"/>
-      <c r="F3" s="100" t="s">
+      <c r="F3" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="101"/>
+      <c r="G3" s="103"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="104" t="s">
+      <c r="I3" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="105"/>
+      <c r="J3" s="107"/>
       <c r="L3" s="34" t="s">
         <v>32</v>
       </c>
@@ -1372,7 +1392,7 @@
       <c r="S3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="98" t="s">
+      <c r="T3" s="100" t="s">
         <v>48</v>
       </c>
       <c r="U3" s="11" t="s">
@@ -1401,7 +1421,7 @@
       <c r="S4" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="99"/>
+      <c r="T4" s="101"/>
       <c r="V4" s="3" t="s">
         <v>79</v>
       </c>
@@ -1410,18 +1430,18 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="15" customHeight="1">
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="108"/>
-      <c r="G5" s="102" t="s">
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="110"/>
+      <c r="G5" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="109"/>
-      <c r="I5" s="109"/>
-      <c r="J5" s="103"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="105"/>
       <c r="M5" s="21" t="s">
         <v>35</v>
       </c>
@@ -1435,7 +1455,7 @@
       <c r="S5" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="T5" s="99"/>
+      <c r="T5" s="101"/>
     </row>
     <row r="6" spans="1:23">
       <c r="F6" s="24"/>
@@ -1445,7 +1465,7 @@
       <c r="S6" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="T6" s="99" t="s">
+      <c r="T6" s="101" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1468,7 +1488,7 @@
       <c r="S7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="T7" s="99"/>
+      <c r="T7" s="101"/>
     </row>
     <row r="8" spans="1:23">
       <c r="C8" s="24"/>
@@ -1486,7 +1506,7 @@
       <c r="S8" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="T8" s="99" t="s">
+      <c r="T8" s="101" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1506,7 +1526,7 @@
       <c r="S9" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="T9" s="99"/>
+      <c r="T9" s="101"/>
     </row>
     <row r="10" spans="1:23">
       <c r="C10" s="24"/>
@@ -1514,7 +1534,7 @@
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="H10" s="4"/>
-      <c r="O10" s="110" t="s">
+      <c r="O10" s="98" t="s">
         <v>63</v>
       </c>
       <c r="P10" s="66"/>
@@ -1527,7 +1547,7 @@
       <c r="T10" s="18"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="O11" s="111"/>
+      <c r="O11" s="99"/>
       <c r="P11" s="67"/>
     </row>
     <row r="12" spans="1:23">
@@ -1592,7 +1612,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" ht="18">
       <c r="B13" s="2">
         <v>1</v>
       </c>
@@ -1627,8 +1647,11 @@
         <v>76</v>
       </c>
       <c r="P13" s="24"/>
-    </row>
-    <row r="14" spans="1:23" ht="15">
+      <c r="Q13" s="112" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="18">
       <c r="B14" s="2">
         <v>2</v>
       </c>
@@ -1663,8 +1686,11 @@
         <v>72</v>
       </c>
       <c r="P14" s="24"/>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="Q14" s="112" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="18">
       <c r="B15" s="2">
         <v>3</v>
       </c>
@@ -1696,8 +1722,11 @@
         <v>72</v>
       </c>
       <c r="P15" s="24"/>
-    </row>
-    <row r="16" spans="1:23" ht="15">
+      <c r="Q15" s="112" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="18">
       <c r="B16" s="2">
         <v>4</v>
       </c>
@@ -1732,9 +1761,12 @@
         <v>74</v>
       </c>
       <c r="P16" s="24"/>
+      <c r="Q16" s="112" t="s">
+        <v>84</v>
+      </c>
       <c r="T16" s="23"/>
     </row>
-    <row r="17" spans="2:20" ht="15">
+    <row r="17" spans="2:20" ht="18">
       <c r="B17" s="2">
         <v>5</v>
       </c>
@@ -1772,6 +1804,7 @@
         <v>73</v>
       </c>
       <c r="P17" s="24"/>
+      <c r="Q17" s="112"/>
       <c r="T17" s="23"/>
     </row>
     <row r="18" spans="2:20" ht="15">
@@ -2551,15 +2584,15 @@
   </sheetData>
   <autoFilter ref="A12:S111" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="9">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:J5"/>
     <mergeCell ref="O10:O11"/>
     <mergeCell ref="T3:T5"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="T8:T9"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:J5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/miniprogram/pages/猫咪档案.xlsx
+++ b/miniprogram/pages/猫咪档案.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD58BE8-1980-424A-947A-9BF7909C8180}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF806859-2454-604D-B56D-392C3C5AE3C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="108">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -391,6 +391,12 @@
   </si>
   <si>
     <t>本次更新简要说明by czj：添加毕业猫2只，更新杰希送养状态</t>
+  </si>
+  <si>
+    <t>必填</t>
+  </si>
+  <si>
+    <t>离世=喵星</t>
   </si>
 </sst>
 </file>
@@ -400,7 +406,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,8 +478,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sim sum"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,6 +522,11 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -668,7 +691,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -687,8 +710,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -831,6 +855,10 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="18" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -876,9 +904,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="18">
+  <cellStyles count="19">
     <cellStyle name="20% - Accent2" xfId="1" builtinId="34"/>
+    <cellStyle name="Bad" xfId="18" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -1175,9 +1207,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC595"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="225" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1236,21 +1268,21 @@
       <c r="A3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="58"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="33"/>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="58"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="59" t="s">
+      <c r="J3" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="60"/>
+      <c r="K3" s="62"/>
       <c r="M3" s="23" t="s">
         <v>34</v>
       </c>
@@ -1273,7 +1305,7 @@
       <c r="T3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="U3" s="52" t="s">
+      <c r="U3" s="54" t="s">
         <v>50</v>
       </c>
       <c r="V3" s="8" t="s">
@@ -1312,7 +1344,7 @@
       <c r="T4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="U4" s="53"/>
+      <c r="U4" s="55"/>
       <c r="X4" s="48" t="s">
         <v>84</v>
       </c>
@@ -1321,18 +1353,18 @@
       </c>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="63"/>
-      <c r="H5" s="57" t="s">
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
+      <c r="H5" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="58"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="60"/>
       <c r="N5" s="17" t="s">
         <v>37</v>
       </c>
@@ -1346,7 +1378,7 @@
       <c r="T5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="U5" s="53"/>
+      <c r="U5" s="55"/>
     </row>
     <row r="6" spans="1:29">
       <c r="F6" s="20"/>
@@ -1357,7 +1389,7 @@
       <c r="T6" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="U6" s="53" t="s">
+      <c r="U6" s="55" t="s">
         <v>51</v>
       </c>
       <c r="V6" s="8" t="s">
@@ -1381,17 +1413,19 @@
       <c r="O7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="35" t="s">
+      <c r="P7" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="Q7" s="30"/>
+      <c r="Q7" s="29" t="s">
+        <v>107</v>
+      </c>
       <c r="S7" s="9">
         <v>2</v>
       </c>
       <c r="T7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="U7" s="53"/>
+      <c r="U7" s="55"/>
       <c r="X7" s="49">
         <v>2</v>
       </c>
@@ -1416,7 +1450,7 @@
       <c r="T8" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="53" t="s">
+      <c r="U8" s="55" t="s">
         <v>52</v>
       </c>
       <c r="X8" s="49">
@@ -1443,7 +1477,7 @@
       <c r="T9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="U9" s="53"/>
+      <c r="U9" s="55"/>
       <c r="X9" s="49">
         <v>4</v>
       </c>
@@ -1458,7 +1492,7 @@
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
       <c r="I10" s="4"/>
-      <c r="P10" s="50" t="s">
+      <c r="P10" s="52" t="s">
         <v>68</v>
       </c>
       <c r="Q10" s="31"/>
@@ -1476,8 +1510,14 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
-      <c r="P11" s="51"/>
+    <row r="11" spans="1:29" ht="16">
+      <c r="F11" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="P11" s="53"/>
       <c r="Q11" s="32"/>
     </row>
     <row r="12" spans="1:29">
@@ -1567,7 +1607,7 @@
       <c r="E13" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="51" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="3">

--- a/miniprogram/pages/猫咪档案.xlsx
+++ b/miniprogram/pages/猫咪档案.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176BA368-1ED1-F245-BF5E-79DB2E2F2A44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA475989-2CDF-7242-AA66-D5FD03705FD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="110">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -263,140 +263,237 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>失踪==3个月以久未见</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>许久未见==3个月内见到</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康==1个月内见到</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不明==目击次数过少，
+    <t>2018-03(~)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立档案：2019-03-30</t>
+  </si>
+  <si>
+    <t>送养</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否写入图鉴</t>
+  </si>
+  <si>
+    <t>图鉴说明</t>
+  </si>
+  <si>
+    <t>写入</t>
+  </si>
+  <si>
+    <t>第一次被目击时间</t>
+  </si>
+  <si>
+    <t>第一次被目击地点</t>
+  </si>
+  <si>
+    <t>2017冬</t>
+  </si>
+  <si>
+    <t>2018秋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018秋 </t>
+  </si>
+  <si>
+    <t>2019寒假</t>
+  </si>
+  <si>
+    <t>送养</t>
+  </si>
+  <si>
+    <t>2016冬</t>
+  </si>
+  <si>
+    <t>狸花</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>后面照片数</t>
+  </si>
+  <si>
+    <t>与杰希一家关系好</t>
+  </si>
+  <si>
+    <t>与杰希一家关系好，经常跟云雾打架（还打不赢）</t>
+  </si>
+  <si>
+    <t>跟夜色关系好</t>
+  </si>
+  <si>
+    <t>毛色分类</t>
+  </si>
+  <si>
+    <t>毛色分类说明</t>
+  </si>
+  <si>
+    <t>橘猫及橘白</t>
+  </si>
+  <si>
+    <t>奶牛</t>
+  </si>
+  <si>
+    <t>玳瑁及三花</t>
+  </si>
+  <si>
+    <t>纯色</t>
+  </si>
+  <si>
+    <t>是否加音频</t>
+  </si>
+  <si>
+    <t>加n个音频</t>
+  </si>
+  <si>
+    <t>2019年07月</t>
+  </si>
+  <si>
+    <t>离世时间</t>
+  </si>
+  <si>
+    <t>离世原因</t>
+  </si>
+  <si>
+    <t>第21次更新</t>
+  </si>
+  <si>
+    <t>大眼</t>
+  </si>
+  <si>
+    <t>2020年5月</t>
+  </si>
+  <si>
+    <t>英杰和一帆的母亲；同居猫：果冻</t>
+  </si>
+  <si>
+    <t>最近更新时间：2020-05-13</t>
+  </si>
+  <si>
+    <t>本次更新简要说明by czj：添加毕业猫2只，更新杰希送养状态</t>
+  </si>
+  <si>
+    <t>必填</t>
+  </si>
+  <si>
+    <t>离世</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>离世</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=喵星</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>失踪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>==3个月以久未见</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>许久未见</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>==3个月内见到</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>健康</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>==1个月内见到</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>==目击次数过少，
 甚至可能没法确认本体</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018-03(~)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>建立档案：2019-03-30</t>
-  </si>
-  <si>
-    <t>送养</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否写入图鉴</t>
-  </si>
-  <si>
-    <t>图鉴说明</t>
-  </si>
-  <si>
-    <t>写入</t>
-  </si>
-  <si>
-    <t>第一次被目击时间</t>
-  </si>
-  <si>
-    <t>第一次被目击地点</t>
-  </si>
-  <si>
-    <t>2017冬</t>
-  </si>
-  <si>
-    <t>2018秋</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018秋 </t>
-  </si>
-  <si>
-    <t>2019寒假</t>
-  </si>
-  <si>
-    <t>送养</t>
-  </si>
-  <si>
-    <t>2016冬</t>
-  </si>
-  <si>
-    <t>狸花</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>后面照片数</t>
-  </si>
-  <si>
-    <t>与杰希一家关系好</t>
-  </si>
-  <si>
-    <t>与杰希一家关系好，经常跟云雾打架（还打不赢）</t>
-  </si>
-  <si>
-    <t>跟夜色关系好</t>
-  </si>
-  <si>
-    <t>毛色分类</t>
-  </si>
-  <si>
-    <t>毛色分类说明</t>
-  </si>
-  <si>
-    <t>橘猫及橘白</t>
-  </si>
-  <si>
-    <t>奶牛</t>
-  </si>
-  <si>
-    <t>玳瑁及三花</t>
-  </si>
-  <si>
-    <t>纯色</t>
-  </si>
-  <si>
-    <t>是否加音频</t>
-  </si>
-  <si>
-    <t>加n个音频</t>
-  </si>
-  <si>
-    <t>2019年07月</t>
-  </si>
-  <si>
-    <t>离世时间</t>
-  </si>
-  <si>
-    <t>离世原因</t>
-  </si>
-  <si>
-    <t>第21次更新</t>
-  </si>
-  <si>
-    <t>大眼</t>
-  </si>
-  <si>
-    <t>2020年5月</t>
-  </si>
-  <si>
-    <t>英杰和一帆的母亲；同居猫：果冻</t>
-  </si>
-  <si>
-    <t>最近更新时间：2020-05-13</t>
-  </si>
-  <si>
-    <t>本次更新简要说明by czj：添加毕业猫2只，更新杰希送养状态</t>
-  </si>
-  <si>
-    <t>必填</t>
-  </si>
-  <si>
-    <t>离世=喵星</t>
+    </r>
+  </si>
+  <si>
+    <t>加粗字为可填选项</t>
   </si>
 </sst>
 </file>
@@ -406,7 +503,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,6 +587,19 @@
       <color theme="1"/>
       <name val="Sim sum"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -712,7 +822,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -859,8 +969,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -886,26 +1008,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1207,9 +1326,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC595"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="164" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1247,16 +1366,16 @@
   <sheetData>
     <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:29">
@@ -1268,21 +1387,21 @@
       <c r="A3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="54"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="33"/>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="55" t="s">
+      <c r="J3" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="56"/>
+      <c r="K3" s="60"/>
       <c r="M3" s="23" t="s">
         <v>34</v>
       </c>
@@ -1305,27 +1424,27 @@
       <c r="T3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="U3" s="63" t="s">
+      <c r="U3" s="52" t="s">
         <v>50</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="W3" s="8"/>
       <c r="X3" s="47">
         <v>0</v>
       </c>
       <c r="Y3" s="41" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="AA3" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AB3" s="28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AC3" s="29" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -1344,27 +1463,27 @@
       <c r="T4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="U4" s="64"/>
+      <c r="U4" s="53"/>
       <c r="X4" s="48" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="Y4" s="43" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1">
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="59"/>
-      <c r="H5" s="53" t="s">
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="63"/>
+      <c r="H5" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="54"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="58"/>
       <c r="N5" s="17" t="s">
         <v>37</v>
       </c>
@@ -1378,7 +1497,7 @@
       <c r="T5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="U5" s="64"/>
+      <c r="U5" s="53"/>
     </row>
     <row r="6" spans="1:29">
       <c r="F6" s="20"/>
@@ -1389,18 +1508,18 @@
       <c r="T6" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="U6" s="64" t="s">
+      <c r="U6" s="53" t="s">
         <v>51</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="W6" s="8"/>
       <c r="X6" s="47">
         <v>1</v>
       </c>
       <c r="Y6" s="41" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1413,11 +1532,11 @@
       <c r="O7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q7" s="29" t="s">
+      <c r="P7" s="68" t="s">
         <v>107</v>
+      </c>
+      <c r="Q7" s="66" t="s">
+        <v>104</v>
       </c>
       <c r="S7" s="9">
         <v>2</v>
@@ -1425,12 +1544,12 @@
       <c r="T7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="U7" s="64"/>
+      <c r="U7" s="53"/>
       <c r="X7" s="49">
         <v>2</v>
       </c>
       <c r="Y7" s="42" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1440,24 +1559,26 @@
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="I8" s="4"/>
-      <c r="P8" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q8" s="30"/>
+      <c r="P8" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q8" s="70" t="s">
+        <v>109</v>
+      </c>
       <c r="S8" s="9">
         <v>1</v>
       </c>
       <c r="T8" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="64" t="s">
+      <c r="U8" s="53" t="s">
         <v>52</v>
       </c>
       <c r="X8" s="49">
         <v>3</v>
       </c>
       <c r="Y8" s="42" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1467,8 +1588,8 @@
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="I9" s="4"/>
-      <c r="P9" s="36" t="s">
-        <v>65</v>
+      <c r="P9" s="67" t="s">
+        <v>105</v>
       </c>
       <c r="Q9" s="30"/>
       <c r="S9" s="9">
@@ -1477,12 +1598,12 @@
       <c r="T9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="U9" s="64"/>
+      <c r="U9" s="53"/>
       <c r="X9" s="49">
         <v>4</v>
       </c>
       <c r="Y9" s="42" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1492,8 +1613,11 @@
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
       <c r="I10" s="4"/>
-      <c r="P10" s="61" t="s">
-        <v>68</v>
+      <c r="J10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" s="69" t="s">
+        <v>108</v>
       </c>
       <c r="Q10" s="31"/>
       <c r="S10" s="10">
@@ -1507,20 +1631,20 @@
         <v>5</v>
       </c>
       <c r="Y10" s="43" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="16">
       <c r="F11" s="50" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="J11" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="P11" s="62"/>
+        <v>102</v>
+      </c>
+      <c r="P11" s="65"/>
       <c r="Q11" s="32"/>
     </row>
     <row r="12" spans="1:29">
@@ -1534,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>2</v>
@@ -1543,7 +1667,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
@@ -1570,10 +1694,10 @@
         <v>41</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>10</v>
@@ -1588,13 +1712,13 @@
         <v>24</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="X12" s="44" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="15">
@@ -1608,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F13" s="51" t="s">
         <v>21</v>
@@ -1620,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="40" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K13" s="3">
         <v>1</v>
@@ -1635,14 +1759,14 @@
         <v>5</v>
       </c>
       <c r="P13" s="24" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Q13" s="20"/>
       <c r="R13" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="15">
@@ -1680,7 +1804,7 @@
         <v>4</v>
       </c>
       <c r="P14" s="37" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q14" s="20"/>
       <c r="R14" s="3" t="s">
@@ -1725,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="P15" s="24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q15" s="20"/>
       <c r="R15" s="3" t="s">
@@ -1752,7 +1876,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K16" s="3">
         <v>1</v>
@@ -1767,14 +1891,14 @@
         <v>6</v>
       </c>
       <c r="P16" s="37" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="20"/>
       <c r="R16" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="U16" s="19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="2:24" ht="15">
@@ -1806,7 +1930,7 @@
         <v>43412</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>26</v>
@@ -1815,11 +1939,11 @@
         <v>4</v>
       </c>
       <c r="P17" s="24" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Q17" s="20"/>
       <c r="R17" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="U17" s="19"/>
       <c r="X17" s="46">
@@ -1861,11 +1985,11 @@
         <v>1</v>
       </c>
       <c r="P18" s="24" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="20"/>
       <c r="R18" s="21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="2:24" customFormat="1" ht="15"/>
@@ -2448,6 +2572,7 @@
   </sheetData>
   <autoFilter ref="A12:T112" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="9">
+    <mergeCell ref="P10:P11"/>
     <mergeCell ref="U3:U5"/>
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="U8:U9"/>
@@ -2456,7 +2581,6 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="H5:K5"/>
-    <mergeCell ref="P10:P11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/miniprogram/pages/猫咪档案.xlsx
+++ b/miniprogram/pages/猫咪档案.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA475989-2CDF-7242-AA66-D5FD03705FD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47FFA7B-3878-F24C-9363-3612A9A0CDB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="110">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -822,7 +822,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -969,6 +969,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1008,22 +1026,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1326,9 +1329,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC595"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="164" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="164" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q10" sqref="Q10"/>
+      <selection pane="bottomLeft" activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1387,21 +1390,21 @@
       <c r="A3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="58"/>
+      <c r="C3" s="64"/>
       <c r="D3" s="33"/>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="59" t="s">
+      <c r="J3" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="60"/>
+      <c r="K3" s="66"/>
       <c r="M3" s="23" t="s">
         <v>34</v>
       </c>
@@ -1424,7 +1427,7 @@
       <c r="T3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="U3" s="52" t="s">
+      <c r="U3" s="58" t="s">
         <v>50</v>
       </c>
       <c r="V3" s="8" t="s">
@@ -1463,7 +1466,7 @@
       <c r="T4" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="U4" s="53"/>
+      <c r="U4" s="59"/>
       <c r="X4" s="48" t="s">
         <v>80</v>
       </c>
@@ -1472,18 +1475,18 @@
       </c>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="63"/>
-      <c r="H5" s="57" t="s">
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
+      <c r="H5" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="58"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="64"/>
       <c r="N5" s="17" t="s">
         <v>37</v>
       </c>
@@ -1497,7 +1500,7 @@
       <c r="T5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="U5" s="53"/>
+      <c r="U5" s="59"/>
     </row>
     <row r="6" spans="1:29">
       <c r="F6" s="20"/>
@@ -1508,7 +1511,7 @@
       <c r="T6" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="U6" s="53" t="s">
+      <c r="U6" s="59" t="s">
         <v>51</v>
       </c>
       <c r="V6" s="8" t="s">
@@ -1532,10 +1535,10 @@
       <c r="O7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="68" t="s">
+      <c r="P7" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="Q7" s="66" t="s">
+      <c r="Q7" s="52" t="s">
         <v>104</v>
       </c>
       <c r="S7" s="9">
@@ -1544,7 +1547,7 @@
       <c r="T7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="U7" s="53"/>
+      <c r="U7" s="59"/>
       <c r="X7" s="49">
         <v>2</v>
       </c>
@@ -1559,10 +1562,10 @@
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="I8" s="4"/>
-      <c r="P8" s="67" t="s">
+      <c r="P8" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="Q8" s="70" t="s">
+      <c r="Q8" s="55" t="s">
         <v>109</v>
       </c>
       <c r="S8" s="9">
@@ -1571,7 +1574,7 @@
       <c r="T8" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="53" t="s">
+      <c r="U8" s="59" t="s">
         <v>52</v>
       </c>
       <c r="X8" s="49">
@@ -1588,7 +1591,7 @@
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="I9" s="4"/>
-      <c r="P9" s="67" t="s">
+      <c r="P9" s="53" t="s">
         <v>105</v>
       </c>
       <c r="Q9" s="30"/>
@@ -1598,7 +1601,7 @@
       <c r="T9" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="U9" s="53"/>
+      <c r="U9" s="59"/>
       <c r="X9" s="49">
         <v>4</v>
       </c>
@@ -1616,7 +1619,7 @@
       <c r="J10" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="P10" s="69" t="s">
+      <c r="P10" s="56" t="s">
         <v>108</v>
       </c>
       <c r="Q10" s="31"/>
@@ -1644,7 +1647,7 @@
       <c r="J11" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="P11" s="65"/>
+      <c r="P11" s="57"/>
       <c r="Q11" s="32"/>
     </row>
     <row r="12" spans="1:29">
@@ -1717,9 +1720,6 @@
       <c r="W12" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="X12" s="44" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="13" spans="1:29" ht="15">
       <c r="B13" s="2">
@@ -1810,7 +1810,7 @@
       <c r="R14" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="X14" s="46">
+      <c r="X14" s="71">
         <v>1</v>
       </c>
     </row>
@@ -2572,15 +2572,15 @@
   </sheetData>
   <autoFilter ref="A12:T112" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="9">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="H5:K5"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="U3:U5"/>
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="U8:U9"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="H5:K5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/miniprogram/pages/猫咪档案.xlsx
+++ b/miniprogram/pages/猫咪档案.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47FFA7B-3878-F24C-9363-3612A9A0CDB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC62854-696C-BB4B-8911-9E1BFD66DBE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="111">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -72,10 +72,6 @@
   </si>
   <si>
     <t>关系</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -494,6 +490,12 @@
   </si>
   <si>
     <t>加粗字为可填选项</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>更多</t>
   </si>
 </sst>
 </file>
@@ -822,7 +824,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -981,6 +983,30 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1001,33 +1027,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1329,9 +1328,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC595"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="164" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="164" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S21" sqref="S21"/>
+      <selection pane="bottomLeft" activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1369,16 +1368,16 @@
   <sheetData>
     <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:29">
@@ -1388,119 +1387,119 @@
     </row>
     <row r="3" spans="1:29">
       <c r="A3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="C3" s="57"/>
+      <c r="D3" s="33"/>
+      <c r="F3" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="33"/>
-      <c r="F3" s="60" t="s">
+      <c r="G3" s="69"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="66"/>
+      <c r="K3" s="59"/>
       <c r="M3" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="15" t="s">
-        <v>35</v>
-      </c>
       <c r="O3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="35" t="s">
         <v>38</v>
-      </c>
-      <c r="P3" s="35" t="s">
-        <v>39</v>
       </c>
       <c r="Q3" s="30"/>
       <c r="R3" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S3" s="18">
         <v>6</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="U3" s="58" t="s">
-        <v>50</v>
+        <v>43</v>
+      </c>
+      <c r="U3" s="66" t="s">
+        <v>49</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W3" s="8"/>
       <c r="X3" s="47">
         <v>0</v>
       </c>
       <c r="Y3" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AA3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB3" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC3" s="29" t="s">
         <v>91</v>
-      </c>
-      <c r="AB3" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC3" s="29" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:29">
       <c r="E4" s="1"/>
       <c r="I4" s="5"/>
       <c r="N4" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P4" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="30"/>
       <c r="S4" s="9">
         <v>5</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="U4" s="59"/>
+        <v>44</v>
+      </c>
+      <c r="U4" s="67"/>
       <c r="X4" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y4" s="43" t="s">
         <v>80</v>
-      </c>
-      <c r="Y4" s="43" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1">
-      <c r="B5" s="67" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="69"/>
-      <c r="H5" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="64"/>
+      <c r="B5" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
+      <c r="H5" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="57"/>
       <c r="N5" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P5" s="34" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q5" s="30"/>
       <c r="S5" s="9">
         <v>4</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="U5" s="59"/>
+        <v>42</v>
+      </c>
+      <c r="U5" s="67"/>
     </row>
     <row r="6" spans="1:29">
       <c r="F6" s="20"/>
@@ -1509,20 +1508,20 @@
         <v>3</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="U6" s="59" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="U6" s="67" t="s">
+        <v>50</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W6" s="8"/>
       <c r="X6" s="47">
         <v>1</v>
       </c>
       <c r="Y6" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1533,26 +1532,26 @@
       <c r="G7" s="20"/>
       <c r="I7" s="4"/>
       <c r="O7" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P7" s="54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q7" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="S7" s="9">
         <v>2</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="U7" s="59"/>
+        <v>46</v>
+      </c>
+      <c r="U7" s="67"/>
       <c r="X7" s="49">
         <v>2</v>
       </c>
       <c r="Y7" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1563,25 +1562,25 @@
       <c r="G8" s="20"/>
       <c r="I8" s="4"/>
       <c r="P8" s="53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q8" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="S8" s="9">
         <v>1</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="U8" s="59" t="s">
-        <v>52</v>
+        <v>47</v>
+      </c>
+      <c r="U8" s="67" t="s">
+        <v>51</v>
       </c>
       <c r="X8" s="49">
         <v>3</v>
       </c>
       <c r="Y8" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1592,21 +1591,21 @@
       <c r="G9" s="20"/>
       <c r="I9" s="4"/>
       <c r="P9" s="53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q9" s="30"/>
       <c r="S9" s="9">
         <v>0</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="U9" s="59"/>
+        <v>48</v>
+      </c>
+      <c r="U9" s="67"/>
       <c r="X9" s="49">
         <v>4</v>
       </c>
       <c r="Y9" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1617,42 +1616,42 @@
       <c r="G10" s="20"/>
       <c r="I10" s="4"/>
       <c r="J10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="P10" s="56" t="s">
-        <v>108</v>
+        <v>102</v>
+      </c>
+      <c r="P10" s="64" t="s">
+        <v>107</v>
       </c>
       <c r="Q10" s="31"/>
       <c r="S10" s="10">
         <v>-1</v>
       </c>
       <c r="T10" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U10" s="14"/>
       <c r="X10" s="48">
         <v>5</v>
       </c>
       <c r="Y10" s="43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="16">
       <c r="F11" s="50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J11" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="P11" s="57"/>
+        <v>101</v>
+      </c>
+      <c r="P11" s="65"/>
       <c r="Q11" s="32"/>
     </row>
     <row r="12" spans="1:29">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>0</v>
@@ -1661,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>2</v>
@@ -1670,7 +1669,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
@@ -1688,37 +1687,40 @@
         <v>8</v>
       </c>
       <c r="M12" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>72</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="W12" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="W12" s="3" t="s">
-        <v>95</v>
+      <c r="X12" s="46" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="15">
@@ -1726,16 +1728,16 @@
         <v>1</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F13" s="51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
@@ -1744,29 +1746,29 @@
         <v>0</v>
       </c>
       <c r="J13" s="40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K13" s="3">
         <v>1</v>
       </c>
       <c r="L13" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O13" s="26">
         <v>5</v>
       </c>
       <c r="P13" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="20"/>
       <c r="R13" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="15">
@@ -1774,13 +1776,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="3">
         <v>3</v>
       </c>
       <c r="F14" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G14" s="20">
         <v>3</v>
@@ -1789,28 +1791,31 @@
         <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K14" s="3">
         <v>1</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N14" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O14" s="20">
         <v>4</v>
       </c>
       <c r="P14" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="20"/>
       <c r="R14" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="X14" s="71">
+        <v>59</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X14" s="46">
         <v>1</v>
       </c>
     </row>
@@ -1819,13 +1824,13 @@
         <v>3</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G15" s="3">
         <v>3</v>
@@ -1834,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K15" s="38">
         <v>1</v>
@@ -1843,17 +1848,17 @@
         <v>43804</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O15" s="3">
         <v>1</v>
       </c>
       <c r="P15" s="24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q15" s="20"/>
       <c r="R15" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="15">
@@ -1861,13 +1866,13 @@
         <v>4</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G16" s="27">
         <v>1</v>
@@ -1876,7 +1881,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K16" s="3">
         <v>1</v>
@@ -1885,20 +1890,20 @@
         <v>43432</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O16" s="3">
         <v>6</v>
       </c>
       <c r="P16" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="20"/>
       <c r="R16" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U16" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="2:24" ht="15">
@@ -1906,13 +1911,13 @@
         <v>5</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G17" s="3">
         <v>2</v>
@@ -1921,7 +1926,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K17" s="3">
         <v>1</v>
@@ -1930,20 +1935,20 @@
         <v>43412</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O17" s="38">
         <v>4</v>
       </c>
       <c r="P17" s="24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q17" s="20"/>
       <c r="R17" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U17" s="19"/>
       <c r="X17" s="46">
@@ -1955,13 +1960,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="3">
         <v>0</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" s="20">
         <v>5</v>
@@ -1970,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K18" s="3">
         <v>1</v>
@@ -1979,17 +1984,17 @@
         <v>43537</v>
       </c>
       <c r="N18" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="38">
         <v>1</v>
       </c>
       <c r="P18" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q18" s="20"/>
       <c r="R18" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="2:24" customFormat="1" ht="15"/>
@@ -2572,15 +2577,15 @@
   </sheetData>
   <autoFilter ref="A12:T112" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="9">
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="P10:P11"/>
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/miniprogram/pages/猫咪档案.xlsx
+++ b/miniprogram/pages/猫咪档案.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC62854-696C-BB4B-8911-9E1BFD66DBE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD26580-6407-A54F-8877-E17070EC2336}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="111">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -824,7 +824,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -971,9 +971,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -983,6 +980,21 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1013,20 +1025,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1330,7 +1336,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" zoomScale="164" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S12" sqref="S12"/>
+      <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1389,21 +1395,21 @@
       <c r="A3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="57"/>
+      <c r="C3" s="61"/>
       <c r="D3" s="33"/>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="69"/>
-      <c r="H3" s="70"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="59"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="58" t="s">
+      <c r="J3" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="59"/>
+      <c r="K3" s="63"/>
       <c r="M3" s="23" t="s">
         <v>33</v>
       </c>
@@ -1426,7 +1432,7 @@
       <c r="T3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="66" t="s">
+      <c r="U3" s="55" t="s">
         <v>49</v>
       </c>
       <c r="V3" s="8" t="s">
@@ -1465,7 +1471,7 @@
       <c r="T4" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="67"/>
+      <c r="U4" s="56"/>
       <c r="X4" s="48" t="s">
         <v>79</v>
       </c>
@@ -1474,18 +1480,18 @@
       </c>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1">
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62"/>
-      <c r="H5" s="56" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
+      <c r="H5" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="57"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="61"/>
       <c r="N5" s="17" t="s">
         <v>36</v>
       </c>
@@ -1499,7 +1505,7 @@
       <c r="T5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="U5" s="67"/>
+      <c r="U5" s="56"/>
     </row>
     <row r="6" spans="1:29">
       <c r="F6" s="20"/>
@@ -1510,7 +1516,7 @@
       <c r="T6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="56" t="s">
         <v>50</v>
       </c>
       <c r="V6" s="8" t="s">
@@ -1534,10 +1540,10 @@
       <c r="O7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="P7" s="54" t="s">
+      <c r="P7" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="Q7" s="52" t="s">
+      <c r="Q7" s="71" t="s">
         <v>103</v>
       </c>
       <c r="S7" s="9">
@@ -1546,7 +1552,7 @@
       <c r="T7" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="U7" s="67"/>
+      <c r="U7" s="56"/>
       <c r="X7" s="49">
         <v>2</v>
       </c>
@@ -1561,11 +1567,11 @@
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="I8" s="4"/>
-      <c r="P8" s="53" t="s">
+      <c r="P8" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="Q8" s="55" t="s">
-        <v>108</v>
+      <c r="Q8" s="72" t="s">
+        <v>76</v>
       </c>
       <c r="S8" s="9">
         <v>1</v>
@@ -1573,7 +1579,7 @@
       <c r="T8" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="U8" s="67" t="s">
+      <c r="U8" s="56" t="s">
         <v>51</v>
       </c>
       <c r="X8" s="49">
@@ -1590,17 +1596,19 @@
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="I9" s="4"/>
-      <c r="P9" s="53" t="s">
+      <c r="P9" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="Q9" s="30"/>
+      <c r="Q9" s="54" t="s">
+        <v>108</v>
+      </c>
       <c r="S9" s="9">
         <v>0</v>
       </c>
       <c r="T9" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="67"/>
+      <c r="U9" s="56"/>
       <c r="X9" s="49">
         <v>4</v>
       </c>
@@ -1618,7 +1626,7 @@
       <c r="J10" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="P10" s="64" t="s">
+      <c r="P10" s="68" t="s">
         <v>107</v>
       </c>
       <c r="Q10" s="31"/>
@@ -1646,7 +1654,7 @@
       <c r="J11" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="P11" s="65"/>
+      <c r="P11" s="69"/>
       <c r="Q11" s="32"/>
     </row>
     <row r="12" spans="1:29">
@@ -2577,6 +2585,7 @@
   </sheetData>
   <autoFilter ref="A12:T112" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="9">
+    <mergeCell ref="P10:P11"/>
     <mergeCell ref="U3:U5"/>
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="U8:U9"/>
@@ -2585,7 +2594,6 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="H5:K5"/>
-    <mergeCell ref="P10:P11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/miniprogram/pages/猫咪档案.xlsx
+++ b/miniprogram/pages/猫咪档案.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD26580-6407-A54F-8877-E17070EC2336}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BA4D70-E1E3-C14C-BC47-E989B1F688D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="116">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -247,22 +247,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2018夏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018春</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>状态</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2018-03(~)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>建立档案：2019-03-30</t>
   </si>
   <si>
@@ -358,9 +346,6 @@
   </si>
   <si>
     <t>大眼</t>
-  </si>
-  <si>
-    <t>2020年5月</t>
   </si>
   <si>
     <t>英杰和一帆的母亲；同居猫：果冻</t>
@@ -496,6 +481,33 @@
   </si>
   <si>
     <t>更多</t>
+  </si>
+  <si>
+    <t>2020年05月</t>
+  </si>
+  <si>
+    <t>请按照严格按照格式书写</t>
+  </si>
+  <si>
+    <t>2018年03月</t>
+  </si>
+  <si>
+    <t>2018夏</t>
+  </si>
+  <si>
+    <t>2019年12月05日</t>
+  </si>
+  <si>
+    <t>2018年11月28日</t>
+  </si>
+  <si>
+    <t>2018年11月08日</t>
+  </si>
+  <si>
+    <t>2019年03月13日</t>
+  </si>
+  <si>
+    <t>2018春</t>
   </si>
 </sst>
 </file>
@@ -824,7 +836,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -844,111 +856,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -958,80 +875,184 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="18" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="18" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1334,16 +1355,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC595"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="164" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R10" sqref="R10"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="8.83203125" style="1"/>
     <col min="2" max="2" width="8.83203125" style="2"/>
-    <col min="3" max="3" width="8.83203125" style="44"/>
+    <col min="3" max="3" width="8.83203125" style="11"/>
     <col min="4" max="4" width="15.6640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="8.83203125" style="3"/>
@@ -1352,8 +1373,8 @@
     <col min="9" max="9" width="8.83203125" style="6"/>
     <col min="10" max="10" width="10.33203125" style="3" customWidth="1"/>
     <col min="11" max="11" width="8.83203125" style="3"/>
-    <col min="12" max="12" width="12.83203125" style="22" customWidth="1"/>
-    <col min="13" max="13" width="12" style="22" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="12" style="8" customWidth="1"/>
     <col min="14" max="14" width="40.33203125" style="3" customWidth="1"/>
     <col min="15" max="15" width="8.83203125" style="3" customWidth="1"/>
     <col min="16" max="16" width="24.33203125" style="4" customWidth="1"/>
@@ -1361,9 +1382,9 @@
     <col min="18" max="18" width="22.33203125" style="3" customWidth="1"/>
     <col min="19" max="19" width="20.5" style="3" customWidth="1"/>
     <col min="20" max="20" width="18.83203125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="14.83203125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="20.1640625" style="3" customWidth="1"/>
     <col min="22" max="23" width="17.6640625" style="3" customWidth="1"/>
-    <col min="24" max="24" width="15.5" style="46" customWidth="1"/>
+    <col min="24" max="24" width="15.5" style="13" customWidth="1"/>
     <col min="25" max="25" width="12.5" style="3" customWidth="1"/>
     <col min="26" max="26" width="8.83203125" style="3"/>
     <col min="27" max="27" width="13.5" style="3" customWidth="1"/>
@@ -1374,16 +1395,16 @@
   <sheetData>
     <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:29">
@@ -1392,633 +1413,801 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="33"/>
-      <c r="F3" s="57" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="62" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="63"/>
-      <c r="M3" s="23" t="s">
+      <c r="K3" s="23"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="35" t="s">
+      <c r="P3" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="8" t="s">
+      <c r="Q3" s="28"/>
+      <c r="R3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="18">
+      <c r="S3" s="29">
         <v>6</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="T3" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="55" t="s">
+      <c r="U3" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="V3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="W3" s="8"/>
-      <c r="X3" s="47">
+      <c r="V3" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="W3" s="14"/>
+      <c r="X3" s="29">
         <v>0</v>
       </c>
-      <c r="Y3" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA3" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AB3" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC3" s="29" t="s">
-        <v>91</v>
+      <c r="Y3" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:29">
-      <c r="E4" s="1"/>
-      <c r="I4" s="5"/>
-      <c r="N4" s="16" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="35" t="s">
         <v>35</v>
       </c>
+      <c r="O4" s="11"/>
       <c r="P4" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="30"/>
-      <c r="S4" s="9">
+      <c r="Q4" s="28"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="37">
         <v>5</v>
       </c>
-      <c r="T4" s="12" t="s">
+      <c r="T4" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="56"/>
-      <c r="X4" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y4" s="43" t="s">
-        <v>80</v>
+      <c r="U4" s="39"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y4" s="41" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1">
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="33"/>
+      <c r="B5" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="66"/>
-      <c r="H5" s="60" t="s">
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="61"/>
-      <c r="N5" s="17" t="s">
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="P5" s="34" t="s">
+      <c r="O5" s="11"/>
+      <c r="P5" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="30"/>
-      <c r="S5" s="9">
+      <c r="Q5" s="28"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="37">
         <v>4</v>
       </c>
-      <c r="T5" s="12" t="s">
+      <c r="T5" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="U5" s="56"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
     </row>
     <row r="6" spans="1:29">
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="S6" s="9">
+      <c r="A6" s="33"/>
+      <c r="B6" s="34"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="37">
         <v>3</v>
       </c>
-      <c r="T6" s="12" t="s">
+      <c r="T6" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="U6" s="56" t="s">
+      <c r="U6" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="V6" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="W6" s="8"/>
-      <c r="X6" s="47">
+      <c r="V6" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="W6" s="14"/>
+      <c r="X6" s="29">
         <v>1</v>
       </c>
-      <c r="Y6" s="41" t="s">
-        <v>78</v>
+      <c r="Y6" s="32" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:29">
-      <c r="C7" s="45"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="I7" s="4"/>
-      <c r="O7" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="P7" s="53" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q7" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="S7" s="9">
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q7" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="R7" s="11"/>
+      <c r="S7" s="37">
         <v>2</v>
       </c>
-      <c r="T7" s="12" t="s">
+      <c r="T7" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="U7" s="56"/>
-      <c r="X7" s="49">
+      <c r="U7" s="39"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="11"/>
+      <c r="X7" s="37">
         <v>2</v>
       </c>
-      <c r="Y7" s="42" t="s">
-        <v>86</v>
+      <c r="Y7" s="51" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="C8" s="45"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="I8" s="4"/>
-      <c r="P8" s="70" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q8" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="S8" s="9">
+      <c r="A8" s="33"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q8" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="R8" s="11"/>
+      <c r="S8" s="37">
         <v>1</v>
       </c>
-      <c r="T8" s="12" t="s">
+      <c r="T8" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="U8" s="56" t="s">
+      <c r="U8" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="X8" s="49">
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="37">
         <v>3</v>
       </c>
-      <c r="Y8" s="42" t="s">
-        <v>87</v>
+      <c r="Y8" s="51" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:29">
-      <c r="C9" s="45"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="I9" s="4"/>
-      <c r="P9" s="52" t="s">
+      <c r="A9" s="33"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="Q9" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="S9" s="9">
+      <c r="R9" s="11"/>
+      <c r="S9" s="37">
         <v>0</v>
       </c>
-      <c r="T9" s="12" t="s">
+      <c r="T9" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="56"/>
-      <c r="X9" s="49">
+      <c r="U9" s="39"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="11"/>
+      <c r="X9" s="37">
         <v>4</v>
       </c>
-      <c r="Y9" s="42" t="s">
-        <v>88</v>
+      <c r="Y9" s="51" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:29">
-      <c r="C10" s="45"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="P10" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q10" s="31"/>
-      <c r="S10" s="10">
+      <c r="A10" s="33"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="40">
         <v>-1</v>
       </c>
-      <c r="T10" s="13" t="s">
+      <c r="T10" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="U10" s="14"/>
-      <c r="X10" s="48">
+      <c r="U10" s="59"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="40">
         <v>5</v>
       </c>
-      <c r="Y10" s="43" t="s">
-        <v>89</v>
+      <c r="Y10" s="41" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="16">
-      <c r="F11" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="J11" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="32"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="G11" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
     </row>
     <row r="12" spans="1:29">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="P12" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L12" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q12" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="R12" s="3" t="s">
+      <c r="Q12" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="R12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="T12" s="3" t="s">
+      <c r="S12" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="T12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="U12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="X12" s="46" t="s">
+      <c r="V12" s="11" t="s">
         <v>90</v>
       </c>
+      <c r="W12" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="X12" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y12" s="11"/>
     </row>
     <row r="13" spans="1:29" ht="15">
-      <c r="B13" s="2">
+      <c r="A13" s="33"/>
+      <c r="B13" s="34">
         <v>1</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="11">
         <v>0</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="51" t="s">
+      <c r="E13" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="11">
         <v>1</v>
       </c>
-      <c r="I13" s="7">
+      <c r="H13" s="11"/>
+      <c r="I13" s="64">
         <v>0</v>
       </c>
-      <c r="J13" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="K13" s="3">
+      <c r="J13" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="11">
         <v>1</v>
       </c>
-      <c r="L13" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="N13" s="21" t="s">
+      <c r="L13" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="M13" s="24"/>
+      <c r="N13" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="O13" s="26">
+      <c r="O13" s="68">
         <v>5</v>
       </c>
-      <c r="P13" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="P13" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
     </row>
     <row r="14" spans="1:29" ht="15">
-      <c r="B14" s="2">
+      <c r="A14" s="33"/>
+      <c r="B14" s="34">
         <v>2</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="11">
         <v>3</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="E14" s="11"/>
+      <c r="F14" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="12">
         <v>3</v>
       </c>
-      <c r="I14" s="7">
+      <c r="H14" s="11"/>
+      <c r="I14" s="64">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="11">
         <v>1</v>
       </c>
-      <c r="L14" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="N14" s="21" t="s">
+      <c r="L14" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="M14" s="24"/>
+      <c r="N14" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="O14" s="20">
+      <c r="O14" s="12">
         <v>4</v>
       </c>
-      <c r="P14" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="3" t="s">
+      <c r="P14" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="X14" s="46">
+      <c r="S14" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11">
         <v>1</v>
       </c>
+      <c r="Y14" s="11"/>
     </row>
     <row r="15" spans="1:29" ht="15">
-      <c r="B15" s="2">
+      <c r="A15" s="33"/>
+      <c r="B15" s="34">
         <v>3</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="11">
         <v>0</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="E15" s="11"/>
+      <c r="F15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="11">
         <v>3</v>
       </c>
-      <c r="I15" s="6">
+      <c r="H15" s="11"/>
+      <c r="I15" s="48">
         <v>1</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="71">
         <v>1</v>
       </c>
-      <c r="L15" s="39">
-        <v>43804</v>
-      </c>
-      <c r="N15" s="3" t="s">
+      <c r="L15" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="M15" s="24"/>
+      <c r="N15" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="11">
         <v>1</v>
       </c>
-      <c r="P15" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="3" t="s">
+      <c r="P15" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="11" t="s">
         <v>60</v>
       </c>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
     </row>
     <row r="16" spans="1:29" ht="15">
-      <c r="B16" s="2">
+      <c r="A16" s="33"/>
+      <c r="B16" s="34">
         <v>4</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="11">
         <v>0</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="E16" s="11"/>
+      <c r="F16" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="73">
         <v>1</v>
       </c>
-      <c r="I16" s="6">
+      <c r="H16" s="11"/>
+      <c r="I16" s="48">
         <v>1</v>
       </c>
-      <c r="J16" t="s">
-        <v>66</v>
-      </c>
-      <c r="K16" s="3">
+      <c r="J16" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="11">
         <v>1</v>
       </c>
-      <c r="L16" s="22">
-        <v>43432</v>
-      </c>
-      <c r="N16" s="21" t="s">
+      <c r="L16" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="M16" s="24"/>
+      <c r="N16" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="11">
         <v>6</v>
       </c>
-      <c r="P16" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="U16" s="19" t="s">
-        <v>92</v>
-      </c>
+      <c r="P16" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
     </row>
-    <row r="17" spans="2:24" ht="15">
-      <c r="B17" s="2">
+    <row r="17" spans="1:25" ht="15">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34">
         <v>5</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="11">
         <v>0</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="E17" s="11"/>
+      <c r="F17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="11">
         <v>2</v>
       </c>
-      <c r="I17" s="6">
+      <c r="H17" s="11"/>
+      <c r="I17" s="48">
         <v>1</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="11">
         <v>1</v>
       </c>
-      <c r="L17" s="22">
-        <v>43412</v>
-      </c>
-      <c r="M17" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="N17" s="3" t="s">
+      <c r="L17" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="N17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="O17" s="38">
+      <c r="O17" s="71">
         <v>4</v>
       </c>
-      <c r="P17" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="U17" s="19"/>
-      <c r="X17" s="46">
+      <c r="P17" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="75"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11">
         <v>2</v>
       </c>
+      <c r="Y17" s="11"/>
     </row>
-    <row r="18" spans="2:24" ht="15">
-      <c r="B18" s="2">
+    <row r="18" spans="1:25" ht="15">
+      <c r="A18" s="33"/>
+      <c r="B18" s="34">
         <v>6</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="11">
         <v>0</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="E18" s="11"/>
+      <c r="F18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="12">
         <v>5</v>
       </c>
-      <c r="I18" s="6">
+      <c r="H18" s="11"/>
+      <c r="I18" s="48">
         <v>0</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="11">
         <v>1</v>
       </c>
-      <c r="L18" s="22">
-        <v>43537</v>
-      </c>
-      <c r="N18" s="21" t="s">
+      <c r="L18" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="M18" s="24"/>
+      <c r="N18" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="O18" s="38">
+      <c r="O18" s="71">
         <v>1</v>
       </c>
-      <c r="P18" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="21" t="s">
-        <v>83</v>
-      </c>
+      <c r="P18" s="69" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
     </row>
-    <row r="19" spans="2:24" customFormat="1" ht="15"/>
-    <row r="20" spans="2:24" customFormat="1" ht="15"/>
-    <row r="21" spans="2:24" customFormat="1" ht="15"/>
-    <row r="22" spans="2:24" customFormat="1" ht="15"/>
-    <row r="23" spans="2:24" customFormat="1" ht="15"/>
-    <row r="24" spans="2:24" customFormat="1" ht="15"/>
-    <row r="25" spans="2:24" customFormat="1" ht="15"/>
-    <row r="26" spans="2:24" customFormat="1" ht="15"/>
-    <row r="27" spans="2:24" customFormat="1" ht="15"/>
-    <row r="28" spans="2:24" customFormat="1" ht="15"/>
-    <row r="29" spans="2:24" customFormat="1" ht="15"/>
-    <row r="30" spans="2:24" customFormat="1" ht="15"/>
-    <row r="31" spans="2:24" customFormat="1" ht="15"/>
-    <row r="32" spans="2:24" customFormat="1" ht="15"/>
+    <row r="19" spans="1:25" customFormat="1" ht="15"/>
+    <row r="20" spans="1:25" customFormat="1" ht="15"/>
+    <row r="21" spans="1:25" customFormat="1" ht="15"/>
+    <row r="22" spans="1:25" customFormat="1" ht="15"/>
+    <row r="23" spans="1:25" customFormat="1" ht="15"/>
+    <row r="24" spans="1:25" customFormat="1" ht="15"/>
+    <row r="25" spans="1:25" customFormat="1" ht="15"/>
+    <row r="26" spans="1:25" customFormat="1" ht="15"/>
+    <row r="27" spans="1:25" customFormat="1" ht="15"/>
+    <row r="28" spans="1:25" customFormat="1" ht="15"/>
+    <row r="29" spans="1:25" customFormat="1" ht="15"/>
+    <row r="30" spans="1:25" customFormat="1" ht="15"/>
+    <row r="31" spans="1:25" customFormat="1" ht="15"/>
+    <row r="32" spans="1:25" customFormat="1" ht="15"/>
     <row r="33" customFormat="1" ht="15"/>
     <row r="34" customFormat="1" ht="15"/>
     <row r="35" customFormat="1" ht="15"/>

--- a/miniprogram/pages/猫咪档案.xlsx
+++ b/miniprogram/pages/猫咪档案.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BA4D70-E1E3-C14C-BC47-E989B1F688D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92055ED8-C743-9041-B920-A02E550AC59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="校内喵" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="117">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -508,6 +508,9 @@
   </si>
   <si>
     <t>2018春</t>
+  </si>
+  <si>
+    <t>请按照x年x月x日格式填写，并且需要在个位数前加0</t>
   </si>
 </sst>
 </file>
@@ -878,33 +881,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -927,9 +909,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -950,26 +929,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1001,9 +965,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1015,9 +976,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="18" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1054,6 +1012,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1355,9 +1358,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC595"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="225" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
+      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1416,56 +1419,56 @@
       <c r="A3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="15"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="22" t="s">
+      <c r="G3" s="74"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="25" t="s">
+      <c r="K3" s="64"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="19" t="s">
         <v>34</v>
       </c>
       <c r="O3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="27" t="s">
+      <c r="P3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="28"/>
+      <c r="Q3" s="21"/>
       <c r="R3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="29">
+      <c r="S3" s="22">
         <v>6</v>
       </c>
-      <c r="T3" s="30" t="s">
+      <c r="T3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="31" t="s">
+      <c r="U3" s="71" t="s">
         <v>49</v>
       </c>
       <c r="V3" s="14" t="s">
         <v>65</v>
       </c>
       <c r="W3" s="14"/>
-      <c r="X3" s="29">
+      <c r="X3" s="22">
         <v>0</v>
       </c>
-      <c r="Y3" s="32" t="s">
+      <c r="Y3" s="24" t="s">
         <v>66</v>
       </c>
       <c r="AA3" s="7" t="s">
@@ -1479,307 +1482,309 @@
       </c>
     </row>
     <row r="4" spans="1:29">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
       <c r="D4" s="11"/>
-      <c r="E4" s="33"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="21"/>
+      <c r="I4" s="16"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="35" t="s">
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="27" t="s">
         <v>35</v>
       </c>
       <c r="O4" s="11"/>
-      <c r="P4" s="36" t="s">
+      <c r="P4" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="28"/>
+      <c r="Q4" s="21"/>
       <c r="R4" s="11"/>
-      <c r="S4" s="37">
+      <c r="S4" s="29">
         <v>5</v>
       </c>
-      <c r="T4" s="38" t="s">
+      <c r="T4" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="39"/>
+      <c r="U4" s="72"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
-      <c r="X4" s="40" t="s">
+      <c r="X4" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="Y4" s="41" t="s">
+      <c r="Y4" s="32" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1">
-      <c r="A5" s="33"/>
-      <c r="B5" s="42" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="44"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="46" t="s">
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="33" t="s">
         <v>36</v>
       </c>
       <c r="O5" s="11"/>
-      <c r="P5" s="47" t="s">
+      <c r="P5" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="Q5" s="28"/>
+      <c r="Q5" s="21"/>
       <c r="R5" s="11"/>
-      <c r="S5" s="37">
+      <c r="S5" s="29">
         <v>4</v>
       </c>
-      <c r="T5" s="38" t="s">
+      <c r="T5" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="U5" s="39"/>
+      <c r="U5" s="72"/>
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
       <c r="Y5" s="11"/>
     </row>
     <row r="6" spans="1:29">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="26"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="48"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
-      <c r="P6" s="24"/>
+      <c r="P6" s="17"/>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
-      <c r="S6" s="37">
+      <c r="S6" s="29">
         <v>3</v>
       </c>
-      <c r="T6" s="38" t="s">
+      <c r="T6" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="U6" s="39" t="s">
+      <c r="U6" s="72" t="s">
         <v>50</v>
       </c>
       <c r="V6" s="14" t="s">
         <v>82</v>
       </c>
       <c r="W6" s="14"/>
-      <c r="X6" s="29">
+      <c r="X6" s="22">
         <v>1</v>
       </c>
-      <c r="Y6" s="32" t="s">
+      <c r="Y6" s="24" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:29">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="24"/>
+      <c r="I7" s="17"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
       <c r="N7" s="11"/>
       <c r="O7" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="P7" s="49" t="s">
+      <c r="P7" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="Q7" s="50" t="s">
+      <c r="Q7" s="37" t="s">
         <v>99</v>
       </c>
       <c r="R7" s="11"/>
-      <c r="S7" s="37">
+      <c r="S7" s="29">
         <v>2</v>
       </c>
-      <c r="T7" s="38" t="s">
+      <c r="T7" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="U7" s="39"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
-      <c r="X7" s="37">
+      <c r="X7" s="29">
         <v>2</v>
       </c>
-      <c r="Y7" s="51" t="s">
+      <c r="Y7" s="38" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="24"/>
+      <c r="I8" s="17"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
-      <c r="P8" s="52" t="s">
+      <c r="P8" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="Q8" s="53" t="s">
+      <c r="Q8" s="40" t="s">
         <v>73</v>
       </c>
       <c r="R8" s="11"/>
-      <c r="S8" s="37">
+      <c r="S8" s="29">
         <v>1</v>
       </c>
-      <c r="T8" s="38" t="s">
+      <c r="T8" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="U8" s="39" t="s">
+      <c r="U8" s="72" t="s">
         <v>51</v>
       </c>
       <c r="V8" s="11"/>
       <c r="W8" s="11"/>
-      <c r="X8" s="37">
+      <c r="X8" s="29">
         <v>3</v>
       </c>
-      <c r="Y8" s="51" t="s">
+      <c r="Y8" s="38" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="24"/>
+      <c r="I9" s="17"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
-      <c r="P9" s="54" t="s">
+      <c r="P9" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="Q9" s="55" t="s">
+      <c r="Q9" s="42" t="s">
         <v>104</v>
       </c>
       <c r="R9" s="11"/>
-      <c r="S9" s="37">
+      <c r="S9" s="29">
         <v>0</v>
       </c>
-      <c r="T9" s="38" t="s">
+      <c r="T9" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="39"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
-      <c r="X9" s="37">
+      <c r="X9" s="29">
         <v>4</v>
       </c>
-      <c r="Y9" s="51" t="s">
+      <c r="Y9" s="38" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="24"/>
+      <c r="I10" s="17"/>
       <c r="J10" s="11" t="s">
         <v>98</v>
       </c>
       <c r="K10" s="11"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
-      <c r="P10" s="56" t="s">
+      <c r="P10" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="Q10" s="57"/>
+      <c r="Q10" s="43"/>
       <c r="R10" s="11"/>
-      <c r="S10" s="40">
+      <c r="S10" s="31">
         <v>-1</v>
       </c>
-      <c r="T10" s="58" t="s">
+      <c r="T10" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="U10" s="59"/>
+      <c r="U10" s="45"/>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
-      <c r="X10" s="40">
+      <c r="X10" s="31">
         <v>5</v>
       </c>
-      <c r="Y10" s="41" t="s">
+      <c r="Y10" s="32" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="16">
-      <c r="A11" s="33"/>
-      <c r="B11" s="34"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="60" t="s">
+      <c r="G11" s="46" t="s">
         <v>97</v>
       </c>
       <c r="H11" s="11"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="60" t="s">
+      <c r="I11" s="35"/>
+      <c r="J11" s="46" t="s">
         <v>97</v>
       </c>
       <c r="K11" s="11"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
+      <c r="L11" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" s="17"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="62"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="47"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
-      <c r="U11" s="60" t="s">
+      <c r="U11" s="46" t="s">
         <v>108</v>
       </c>
       <c r="V11" s="11"/>
@@ -1788,10 +1793,10 @@
       <c r="Y11" s="11"/>
     </row>
     <row r="12" spans="1:29">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -1812,7 +1817,7 @@
       <c r="H12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="17" t="s">
         <v>5</v>
       </c>
       <c r="J12" s="11" t="s">
@@ -1821,10 +1826,10 @@
       <c r="K12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="24" t="s">
+      <c r="L12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="24" t="s">
+      <c r="M12" s="17" t="s">
         <v>57</v>
       </c>
       <c r="N12" s="11" t="s">
@@ -1833,10 +1838,10 @@
       <c r="O12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="P12" s="24" t="s">
+      <c r="P12" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="Q12" s="38" t="s">
+      <c r="Q12" s="30" t="s">
         <v>68</v>
       </c>
       <c r="R12" s="11" t="s">
@@ -1863,8 +1868,8 @@
       <c r="Y12" s="11"/>
     </row>
     <row r="13" spans="1:29" ht="15">
-      <c r="A13" s="33"/>
-      <c r="B13" s="34">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26">
         <v>1</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -1876,33 +1881,33 @@
       <c r="E13" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="63" t="s">
+      <c r="F13" s="48" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="11">
         <v>1</v>
       </c>
       <c r="H13" s="11"/>
-      <c r="I13" s="64">
+      <c r="I13" s="49">
         <v>0</v>
       </c>
-      <c r="J13" s="65" t="s">
+      <c r="J13" s="50" t="s">
         <v>73</v>
       </c>
       <c r="K13" s="11">
         <v>1</v>
       </c>
-      <c r="L13" s="66" t="s">
+      <c r="L13" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="M13" s="24"/>
-      <c r="N13" s="67" t="s">
+      <c r="M13" s="17"/>
+      <c r="N13" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="O13" s="68">
+      <c r="O13" s="53">
         <v>5</v>
       </c>
-      <c r="P13" s="69" t="s">
+      <c r="P13" s="54" t="s">
         <v>74</v>
       </c>
       <c r="Q13" s="12"/>
@@ -1920,8 +1925,8 @@
       <c r="Y13" s="11"/>
     </row>
     <row r="14" spans="1:29" ht="15">
-      <c r="A14" s="33"/>
-      <c r="B14" s="34">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26">
         <v>2</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -1938,7 +1943,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="11"/>
-      <c r="I14" s="64">
+      <c r="I14" s="49">
         <v>0</v>
       </c>
       <c r="J14" s="11" t="s">
@@ -1947,17 +1952,17 @@
       <c r="K14" s="11">
         <v>1</v>
       </c>
-      <c r="L14" s="24" t="s">
+      <c r="L14" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="M14" s="24"/>
-      <c r="N14" s="67" t="s">
+      <c r="M14" s="17"/>
+      <c r="N14" s="52" t="s">
         <v>54</v>
       </c>
       <c r="O14" s="12">
         <v>4</v>
       </c>
-      <c r="P14" s="70" t="s">
+      <c r="P14" s="55" t="s">
         <v>69</v>
       </c>
       <c r="Q14" s="12"/>
@@ -1977,8 +1982,8 @@
       <c r="Y14" s="11"/>
     </row>
     <row r="15" spans="1:29" ht="15">
-      <c r="A15" s="33"/>
-      <c r="B15" s="34">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26">
         <v>3</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -1995,26 +2000,26 @@
         <v>3</v>
       </c>
       <c r="H15" s="11"/>
-      <c r="I15" s="48">
+      <c r="I15" s="35">
         <v>1</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="71">
+      <c r="K15" s="56">
         <v>1</v>
       </c>
-      <c r="L15" s="72" t="s">
+      <c r="L15" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="M15" s="24"/>
+      <c r="M15" s="17"/>
       <c r="N15" s="11" t="s">
         <v>24</v>
       </c>
       <c r="O15" s="11">
         <v>1</v>
       </c>
-      <c r="P15" s="69" t="s">
+      <c r="P15" s="54" t="s">
         <v>69</v>
       </c>
       <c r="Q15" s="12"/>
@@ -2030,8 +2035,8 @@
       <c r="Y15" s="11"/>
     </row>
     <row r="16" spans="1:29" ht="15">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34">
+      <c r="A16" s="25"/>
+      <c r="B16" s="26">
         <v>4</v>
       </c>
       <c r="C16" s="11" t="s">
@@ -2041,33 +2046,33 @@
         <v>0</v>
       </c>
       <c r="E16" s="11"/>
-      <c r="F16" s="73" t="s">
+      <c r="F16" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="73">
+      <c r="G16" s="58">
         <v>1</v>
       </c>
       <c r="H16" s="11"/>
-      <c r="I16" s="48">
+      <c r="I16" s="35">
         <v>1</v>
       </c>
-      <c r="J16" s="74" t="s">
+      <c r="J16" s="59" t="s">
         <v>63</v>
       </c>
       <c r="K16" s="11">
         <v>1</v>
       </c>
-      <c r="L16" s="24" t="s">
+      <c r="L16" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="M16" s="24"/>
-      <c r="N16" s="67" t="s">
+      <c r="M16" s="17"/>
+      <c r="N16" s="52" t="s">
         <v>55</v>
       </c>
       <c r="O16" s="11">
         <v>6</v>
       </c>
-      <c r="P16" s="70" t="s">
+      <c r="P16" s="55" t="s">
         <v>71</v>
       </c>
       <c r="Q16" s="12"/>
@@ -2076,7 +2081,7 @@
       </c>
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
-      <c r="U16" s="75" t="s">
+      <c r="U16" s="60" t="s">
         <v>89</v>
       </c>
       <c r="V16" s="11"/>
@@ -2085,8 +2090,8 @@
       <c r="Y16" s="11"/>
     </row>
     <row r="17" spans="1:25" ht="15">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34">
+      <c r="A17" s="25"/>
+      <c r="B17" s="26">
         <v>5</v>
       </c>
       <c r="C17" s="11" t="s">
@@ -2103,7 +2108,7 @@
         <v>2</v>
       </c>
       <c r="H17" s="11"/>
-      <c r="I17" s="48">
+      <c r="I17" s="35">
         <v>1</v>
       </c>
       <c r="J17" s="11" t="s">
@@ -2112,19 +2117,19 @@
       <c r="K17" s="11">
         <v>1</v>
       </c>
-      <c r="L17" s="24" t="s">
+      <c r="L17" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="M17" s="24" t="s">
+      <c r="M17" s="17" t="s">
         <v>109</v>
       </c>
       <c r="N17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="O17" s="71">
+      <c r="O17" s="56">
         <v>4</v>
       </c>
-      <c r="P17" s="69" t="s">
+      <c r="P17" s="54" t="s">
         <v>70</v>
       </c>
       <c r="Q17" s="12"/>
@@ -2133,7 +2138,7 @@
       </c>
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
-      <c r="U17" s="75"/>
+      <c r="U17" s="60"/>
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
       <c r="X17" s="11">
@@ -2142,8 +2147,8 @@
       <c r="Y17" s="11"/>
     </row>
     <row r="18" spans="1:25" ht="15">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34">
+      <c r="A18" s="25"/>
+      <c r="B18" s="26">
         <v>6</v>
       </c>
       <c r="C18" s="11" t="s">
@@ -2160,7 +2165,7 @@
         <v>5</v>
       </c>
       <c r="H18" s="11"/>
-      <c r="I18" s="48">
+      <c r="I18" s="35">
         <v>0</v>
       </c>
       <c r="J18" s="11" t="s">
@@ -2169,21 +2174,21 @@
       <c r="K18" s="11">
         <v>1</v>
       </c>
-      <c r="L18" s="24" t="s">
+      <c r="L18" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="M18" s="24"/>
-      <c r="N18" s="67" t="s">
+      <c r="M18" s="17"/>
+      <c r="N18" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="O18" s="71">
+      <c r="O18" s="56">
         <v>1</v>
       </c>
-      <c r="P18" s="69" t="s">
+      <c r="P18" s="54" t="s">
         <v>72</v>
       </c>
       <c r="Q18" s="12"/>
-      <c r="R18" s="67" t="s">
+      <c r="R18" s="52" t="s">
         <v>80</v>
       </c>
       <c r="S18" s="11"/>
@@ -2774,7 +2779,6 @@
   </sheetData>
   <autoFilter ref="A12:T112" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="9">
-    <mergeCell ref="P10:P11"/>
     <mergeCell ref="U3:U5"/>
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="U8:U9"/>
@@ -2783,6 +2787,7 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="H5:K5"/>
+    <mergeCell ref="P10:P11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/miniprogram/pages/猫咪档案.xlsx
+++ b/miniprogram/pages/猫咪档案.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92055ED8-C743-9041-B920-A02E550AC59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70C6A19-AB30-9648-BDF4-B70514D67925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="116">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -492,9 +492,6 @@
     <t>2018年03月</t>
   </si>
   <si>
-    <t>2018夏</t>
-  </si>
-  <si>
     <t>2019年12月05日</t>
   </si>
   <si>
@@ -507,10 +504,28 @@
     <t>2019年03月13日</t>
   </si>
   <si>
-    <t>2018春</t>
-  </si>
-  <si>
     <t>请按照x年x月x日格式填写，并且需要在个位数前加0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>口炎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>==归类到在校</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -520,7 +535,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,8 +632,15 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -652,6 +674,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -818,7 +845,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -838,6 +865,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -956,17 +984,8 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1013,6 +1032,33 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1037,29 +1083,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="20">
     <cellStyle name="20% - Accent2" xfId="1" builtinId="34"/>
     <cellStyle name="Bad" xfId="18" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1078,6 +1106,7 @@
     <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Neutral" xfId="19" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1358,9 +1387,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC595"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="225" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="225" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1377,7 +1406,7 @@
     <col min="10" max="10" width="10.33203125" style="3" customWidth="1"/>
     <col min="11" max="11" width="8.83203125" style="3"/>
     <col min="12" max="12" width="12.83203125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="12" style="8" customWidth="1"/>
+    <col min="13" max="13" width="15" style="8" customWidth="1"/>
     <col min="14" max="14" width="40.33203125" style="3" customWidth="1"/>
     <col min="15" max="15" width="8.83203125" style="3" customWidth="1"/>
     <col min="16" max="16" width="24.33203125" style="4" customWidth="1"/>
@@ -1419,22 +1448,22 @@
       <c r="A3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="62"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="15"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="74"/>
-      <c r="H3" s="75"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="66"/>
       <c r="I3" s="16"/>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="64"/>
+      <c r="K3" s="70"/>
       <c r="L3" s="17"/>
       <c r="M3" s="18" t="s">
         <v>33</v>
@@ -1458,7 +1487,7 @@
       <c r="T3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="71" t="s">
+      <c r="U3" s="62" t="s">
         <v>49</v>
       </c>
       <c r="V3" s="14" t="s">
@@ -1509,7 +1538,7 @@
       <c r="T4" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="72"/>
+      <c r="U4" s="63"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="31" t="s">
@@ -1521,20 +1550,20 @@
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1">
       <c r="A5" s="25"/>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="67"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="61" t="s">
+      <c r="H5" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="62"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="68"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
       <c r="N5" s="33" t="s">
@@ -1552,7 +1581,7 @@
       <c r="T5" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="U5" s="72"/>
+      <c r="U5" s="63"/>
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
@@ -1582,7 +1611,7 @@
       <c r="T6" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="63" t="s">
         <v>50</v>
       </c>
       <c r="V6" s="14" t="s">
@@ -1627,7 +1656,7 @@
       <c r="T7" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="U7" s="72"/>
+      <c r="U7" s="63"/>
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
       <c r="X7" s="29">
@@ -1656,7 +1685,7 @@
       <c r="P8" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="Q8" s="40" t="s">
+      <c r="Q8" s="58" t="s">
         <v>73</v>
       </c>
       <c r="R8" s="11"/>
@@ -1666,7 +1695,7 @@
       <c r="T8" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="U8" s="72" t="s">
+      <c r="U8" s="63" t="s">
         <v>51</v>
       </c>
       <c r="V8" s="11"/>
@@ -1694,11 +1723,11 @@
       <c r="M9" s="17"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
-      <c r="P9" s="41" t="s">
+      <c r="P9" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="Q9" s="42" t="s">
-        <v>104</v>
+      <c r="Q9" s="59" t="s">
+        <v>115</v>
       </c>
       <c r="R9" s="11"/>
       <c r="S9" s="29">
@@ -1707,7 +1736,7 @@
       <c r="T9" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="72"/>
+      <c r="U9" s="63"/>
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
       <c r="X9" s="29">
@@ -1735,18 +1764,20 @@
       <c r="M10" s="17"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
-      <c r="P10" s="69" t="s">
+      <c r="P10" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="Q10" s="43"/>
+      <c r="Q10" s="40" t="s">
+        <v>104</v>
+      </c>
       <c r="R10" s="11"/>
       <c r="S10" s="31">
         <v>-1</v>
       </c>
-      <c r="T10" s="44" t="s">
+      <c r="T10" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="U10" s="45"/>
+      <c r="U10" s="42"/>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
       <c r="X10" s="31">
@@ -1761,30 +1792,30 @@
       <c r="B11" s="26"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
-      <c r="F11" s="46" t="s">
+      <c r="F11" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="43" t="s">
         <v>97</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="35"/>
-      <c r="J11" s="46" t="s">
+      <c r="J11" s="43" t="s">
         <v>97</v>
       </c>
       <c r="K11" s="11"/>
-      <c r="L11" s="17" t="s">
-        <v>116</v>
+      <c r="L11" s="75" t="s">
+        <v>114</v>
       </c>
       <c r="M11" s="17"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="47"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="44"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
-      <c r="U11" s="46" t="s">
+      <c r="U11" s="43" t="s">
         <v>108</v>
       </c>
       <c r="V11" s="11"/>
@@ -1881,33 +1912,31 @@
       <c r="E13" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="45" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="11">
         <v>1</v>
       </c>
       <c r="H13" s="11"/>
-      <c r="I13" s="49">
+      <c r="I13" s="46">
         <v>0</v>
       </c>
-      <c r="J13" s="50" t="s">
+      <c r="J13" s="47" t="s">
         <v>73</v>
       </c>
       <c r="K13" s="11">
         <v>1</v>
       </c>
-      <c r="L13" s="51" t="s">
-        <v>115</v>
-      </c>
+      <c r="L13" s="48"/>
       <c r="M13" s="17"/>
-      <c r="N13" s="52" t="s">
+      <c r="N13" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="O13" s="53">
+      <c r="O13" s="50">
         <v>5</v>
       </c>
-      <c r="P13" s="54" t="s">
+      <c r="P13" s="51" t="s">
         <v>74</v>
       </c>
       <c r="Q13" s="12"/>
@@ -1943,7 +1972,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="11"/>
-      <c r="I14" s="49">
+      <c r="I14" s="46">
         <v>0</v>
       </c>
       <c r="J14" s="11" t="s">
@@ -1952,17 +1981,15 @@
       <c r="K14" s="11">
         <v>1</v>
       </c>
-      <c r="L14" s="17" t="s">
-        <v>110</v>
-      </c>
+      <c r="L14" s="17"/>
       <c r="M14" s="17"/>
-      <c r="N14" s="52" t="s">
+      <c r="N14" s="49" t="s">
         <v>54</v>
       </c>
       <c r="O14" s="12">
         <v>4</v>
       </c>
-      <c r="P14" s="55" t="s">
+      <c r="P14" s="52" t="s">
         <v>69</v>
       </c>
       <c r="Q14" s="12"/>
@@ -2006,11 +2033,11 @@
       <c r="J15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="56">
+      <c r="K15" s="53">
         <v>1</v>
       </c>
-      <c r="L15" s="57" t="s">
-        <v>111</v>
+      <c r="L15" s="54" t="s">
+        <v>110</v>
       </c>
       <c r="M15" s="17"/>
       <c r="N15" s="11" t="s">
@@ -2019,7 +2046,7 @@
       <c r="O15" s="11">
         <v>1</v>
       </c>
-      <c r="P15" s="54" t="s">
+      <c r="P15" s="51" t="s">
         <v>69</v>
       </c>
       <c r="Q15" s="12"/>
@@ -2046,33 +2073,33 @@
         <v>0</v>
       </c>
       <c r="E16" s="11"/>
-      <c r="F16" s="58" t="s">
+      <c r="F16" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="58">
+      <c r="G16" s="55">
         <v>1</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="35">
         <v>1</v>
       </c>
-      <c r="J16" s="59" t="s">
+      <c r="J16" s="56" t="s">
         <v>63</v>
       </c>
       <c r="K16" s="11">
         <v>1</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M16" s="17"/>
-      <c r="N16" s="52" t="s">
+      <c r="N16" s="49" t="s">
         <v>55</v>
       </c>
       <c r="O16" s="11">
         <v>6</v>
       </c>
-      <c r="P16" s="55" t="s">
+      <c r="P16" s="52" t="s">
         <v>71</v>
       </c>
       <c r="Q16" s="12"/>
@@ -2081,7 +2108,7 @@
       </c>
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
-      <c r="U16" s="60" t="s">
+      <c r="U16" s="57" t="s">
         <v>89</v>
       </c>
       <c r="V16" s="11"/>
@@ -2118,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M17" s="17" t="s">
         <v>109</v>
@@ -2126,10 +2153,10 @@
       <c r="N17" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="O17" s="56">
+      <c r="O17" s="53">
         <v>4</v>
       </c>
-      <c r="P17" s="54" t="s">
+      <c r="P17" s="51" t="s">
         <v>70</v>
       </c>
       <c r="Q17" s="12"/>
@@ -2138,7 +2165,7 @@
       </c>
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
-      <c r="U17" s="60"/>
+      <c r="U17" s="57"/>
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
       <c r="X17" s="11">
@@ -2175,20 +2202,20 @@
         <v>1</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M18" s="17"/>
-      <c r="N18" s="52" t="s">
+      <c r="N18" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="O18" s="56">
+      <c r="O18" s="53">
         <v>1</v>
       </c>
-      <c r="P18" s="54" t="s">
+      <c r="P18" s="51" t="s">
         <v>72</v>
       </c>
       <c r="Q18" s="12"/>
-      <c r="R18" s="52" t="s">
+      <c r="R18" s="49" t="s">
         <v>80</v>
       </c>
       <c r="S18" s="11"/>
@@ -2779,15 +2806,15 @@
   </sheetData>
   <autoFilter ref="A12:T112" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="9">
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="P10:P11"/>
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/miniprogram/pages/猫咪档案.xlsx
+++ b/miniprogram/pages/猫咪档案.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70C6A19-AB30-9648-BDF4-B70514D67925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CC4B07-9B17-DA4B-94AC-AE7A386309C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24200" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="校内喵" sheetId="1" r:id="rId1"/>
@@ -1038,6 +1038,33 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1058,33 +1085,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1387,9 +1387,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC595"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="225" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="225" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomLeft" activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1448,22 +1448,22 @@
       <c r="A3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="68"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="15"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="64" t="s">
+      <c r="F3" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="65"/>
-      <c r="H3" s="66"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="75"/>
       <c r="I3" s="16"/>
-      <c r="J3" s="69" t="s">
+      <c r="J3" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="70"/>
+      <c r="K3" s="64"/>
       <c r="L3" s="17"/>
       <c r="M3" s="18" t="s">
         <v>33</v>
@@ -1487,7 +1487,7 @@
       <c r="T3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="62" t="s">
+      <c r="U3" s="71" t="s">
         <v>49</v>
       </c>
       <c r="V3" s="14" t="s">
@@ -1538,7 +1538,7 @@
       <c r="T4" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="63"/>
+      <c r="U4" s="72"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="31" t="s">
@@ -1550,20 +1550,20 @@
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1">
       <c r="A5" s="25"/>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="73"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="62"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
       <c r="N5" s="33" t="s">
@@ -1581,7 +1581,7 @@
       <c r="T5" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="U5" s="63"/>
+      <c r="U5" s="72"/>
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
@@ -1611,7 +1611,7 @@
       <c r="T6" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="U6" s="63" t="s">
+      <c r="U6" s="72" t="s">
         <v>50</v>
       </c>
       <c r="V6" s="14" t="s">
@@ -1656,7 +1656,7 @@
       <c r="T7" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="U7" s="63"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
       <c r="X7" s="29">
@@ -1695,7 +1695,7 @@
       <c r="T8" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="U8" s="63" t="s">
+      <c r="U8" s="72" t="s">
         <v>51</v>
       </c>
       <c r="V8" s="11"/>
@@ -1736,7 +1736,7 @@
       <c r="T9" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="63"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
       <c r="X9" s="29">
@@ -1764,7 +1764,7 @@
       <c r="M10" s="17"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
-      <c r="P10" s="60" t="s">
+      <c r="P10" s="69" t="s">
         <v>103</v>
       </c>
       <c r="Q10" s="40" t="s">
@@ -1804,13 +1804,13 @@
         <v>97</v>
       </c>
       <c r="K11" s="11"/>
-      <c r="L11" s="75" t="s">
+      <c r="L11" s="60" t="s">
         <v>114</v>
       </c>
       <c r="M11" s="17"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
-      <c r="P11" s="61"/>
+      <c r="P11" s="70"/>
       <c r="Q11" s="44"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
@@ -2806,15 +2806,15 @@
   </sheetData>
   <autoFilter ref="A12:T112" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="9">
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="P10:P11"/>
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/miniprogram/pages/猫咪档案.xlsx
+++ b/miniprogram/pages/猫咪档案.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CC4B07-9B17-DA4B-94AC-AE7A386309C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0A14BD-9261-5D40-9C08-06ACB17B6635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24200" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="118">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -526,6 +526,12 @@
       </rPr>
       <t>==归类到在校</t>
     </r>
+  </si>
+  <si>
+    <t>是否加视频</t>
+  </si>
+  <si>
+    <t>加n个视频</t>
   </si>
 </sst>
 </file>
@@ -1041,6 +1047,21 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1070,21 +1091,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1387,9 +1393,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC595"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="225" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V16" sqref="V16"/>
+      <selection pane="bottomLeft" activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1448,22 +1454,22 @@
       <c r="A3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="62"/>
+      <c r="C3" s="67"/>
       <c r="D3" s="15"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="74"/>
-      <c r="H3" s="75"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="65"/>
       <c r="I3" s="16"/>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="64"/>
+      <c r="K3" s="69"/>
       <c r="L3" s="17"/>
       <c r="M3" s="18" t="s">
         <v>33</v>
@@ -1487,7 +1493,7 @@
       <c r="T3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="71" t="s">
+      <c r="U3" s="61" t="s">
         <v>49</v>
       </c>
       <c r="V3" s="14" t="s">
@@ -1538,7 +1544,7 @@
       <c r="T4" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="72"/>
+      <c r="U4" s="62"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="31" t="s">
@@ -1550,20 +1556,20 @@
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1">
       <c r="A5" s="25"/>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="67"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="72"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="61" t="s">
+      <c r="H5" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="62"/>
+      <c r="I5" s="73"/>
+      <c r="J5" s="73"/>
+      <c r="K5" s="67"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
       <c r="N5" s="33" t="s">
@@ -1581,7 +1587,7 @@
       <c r="T5" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="U5" s="72"/>
+      <c r="U5" s="62"/>
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
@@ -1611,7 +1617,7 @@
       <c r="T6" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="62" t="s">
         <v>50</v>
       </c>
       <c r="V6" s="14" t="s">
@@ -1623,6 +1629,15 @@
       </c>
       <c r="Y6" s="24" t="s">
         <v>75</v>
+      </c>
+      <c r="AA6" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB6" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC6" s="10" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1656,7 +1671,7 @@
       <c r="T7" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="U7" s="72"/>
+      <c r="U7" s="62"/>
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
       <c r="X7" s="29">
@@ -1695,7 +1710,7 @@
       <c r="T8" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="U8" s="72" t="s">
+      <c r="U8" s="62" t="s">
         <v>51</v>
       </c>
       <c r="V8" s="11"/>
@@ -1736,7 +1751,7 @@
       <c r="T9" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="72"/>
+      <c r="U9" s="62"/>
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
       <c r="X9" s="29">
@@ -1764,7 +1779,7 @@
       <c r="M10" s="17"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
-      <c r="P10" s="69" t="s">
+      <c r="P10" s="74" t="s">
         <v>103</v>
       </c>
       <c r="Q10" s="40" t="s">
@@ -1810,7 +1825,7 @@
       <c r="M11" s="17"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
-      <c r="P11" s="70"/>
+      <c r="P11" s="75"/>
       <c r="Q11" s="44"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
@@ -1896,7 +1911,9 @@
       <c r="X12" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="Y12" s="11"/>
+      <c r="Y12" s="11" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="13" spans="1:29" ht="15">
       <c r="A13" s="25"/>
@@ -2006,7 +2023,9 @@
       <c r="X14" s="11">
         <v>1</v>
       </c>
-      <c r="Y14" s="11"/>
+      <c r="Y14" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:29" ht="15">
       <c r="A15" s="25"/>
@@ -2806,6 +2825,7 @@
   </sheetData>
   <autoFilter ref="A12:T112" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="9">
+    <mergeCell ref="P10:P11"/>
     <mergeCell ref="U3:U5"/>
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="U8:U9"/>
@@ -2814,7 +2834,6 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="H5:K5"/>
-    <mergeCell ref="P10:P11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/miniprogram/pages/猫咪档案.xlsx
+++ b/miniprogram/pages/猫咪档案.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0A14BD-9261-5D40-9C08-06ACB17B6635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B69196-F1F0-EF45-A9EC-9550E4D6F459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24200" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="119">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -532,6 +532,9 @@
   </si>
   <si>
     <t>加n个视频</t>
+  </si>
+  <si>
+    <t>注意单元格式设置为常规，不要设置成数字</t>
   </si>
 </sst>
 </file>
@@ -1047,6 +1050,12 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1085,12 +1094,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1393,9 +1396,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC595"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y14" sqref="Y14"/>
+      <selection pane="bottomLeft" activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1454,22 +1457,22 @@
       <c r="A3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="67"/>
+      <c r="C3" s="69"/>
       <c r="D3" s="15"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="63" t="s">
+      <c r="F3" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="64"/>
-      <c r="H3" s="65"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
       <c r="I3" s="16"/>
-      <c r="J3" s="68" t="s">
+      <c r="J3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="69"/>
+      <c r="K3" s="71"/>
       <c r="L3" s="17"/>
       <c r="M3" s="18" t="s">
         <v>33</v>
@@ -1493,7 +1496,7 @@
       <c r="T3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="61" t="s">
+      <c r="U3" s="63" t="s">
         <v>49</v>
       </c>
       <c r="V3" s="14" t="s">
@@ -1544,7 +1547,7 @@
       <c r="T4" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="62"/>
+      <c r="U4" s="64"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="31" t="s">
@@ -1556,20 +1559,20 @@
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1">
       <c r="A5" s="25"/>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="72"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="67"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="69"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
       <c r="N5" s="33" t="s">
@@ -1587,7 +1590,7 @@
       <c r="T5" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="U5" s="62"/>
+      <c r="U5" s="64"/>
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
@@ -1617,7 +1620,7 @@
       <c r="T6" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="64" t="s">
         <v>50</v>
       </c>
       <c r="V6" s="14" t="s">
@@ -1671,7 +1674,7 @@
       <c r="T7" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="U7" s="62"/>
+      <c r="U7" s="64"/>
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
       <c r="X7" s="29">
@@ -1710,7 +1713,7 @@
       <c r="T8" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="U8" s="62" t="s">
+      <c r="U8" s="64" t="s">
         <v>51</v>
       </c>
       <c r="V8" s="11"/>
@@ -1751,7 +1754,7 @@
       <c r="T9" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="62"/>
+      <c r="U9" s="64"/>
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
       <c r="X9" s="29">
@@ -1761,7 +1764,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" ht="16">
       <c r="A10" s="25"/>
       <c r="B10" s="26"/>
       <c r="C10" s="12"/>
@@ -1775,11 +1778,13 @@
         <v>98</v>
       </c>
       <c r="K10" s="11"/>
-      <c r="L10" s="17"/>
+      <c r="L10" s="60" t="s">
+        <v>118</v>
+      </c>
       <c r="M10" s="17"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
-      <c r="P10" s="74" t="s">
+      <c r="P10" s="61" t="s">
         <v>103</v>
       </c>
       <c r="Q10" s="40" t="s">
@@ -1825,7 +1830,7 @@
       <c r="M11" s="17"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
-      <c r="P11" s="75"/>
+      <c r="P11" s="62"/>
       <c r="Q11" s="44"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
@@ -2825,15 +2830,15 @@
   </sheetData>
   <autoFilter ref="A12:T112" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="9">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="H5:K5"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="U3:U5"/>
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="U8:U9"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="H5:K5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/miniprogram/pages/猫咪档案.xlsx
+++ b/miniprogram/pages/猫咪档案.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B69196-F1F0-EF45-A9EC-9550E4D6F459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1144F39D-8B2E-2943-9853-C2095E4692F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24200" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -492,21 +492,6 @@
     <t>2018年03月</t>
   </si>
   <si>
-    <t>2019年12月05日</t>
-  </si>
-  <si>
-    <t>2018年11月28日</t>
-  </si>
-  <si>
-    <t>2018年11月08日</t>
-  </si>
-  <si>
-    <t>2019年03月13日</t>
-  </si>
-  <si>
-    <t>请按照x年x月x日格式填写，并且需要在个位数前加0</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -535,6 +520,21 @@
   </si>
   <si>
     <t>注意单元格式设置为常规，不要设置成数字</t>
+  </si>
+  <si>
+    <t>请按照x年x月x号格式填写，并且需要在个位数前加0</t>
+  </si>
+  <si>
+    <t>2019年12月05号</t>
+  </si>
+  <si>
+    <t>2018年11月28号</t>
+  </si>
+  <si>
+    <t>2018年11月08号</t>
+  </si>
+  <si>
+    <t>2019年03月13号</t>
   </si>
 </sst>
 </file>
@@ -1050,6 +1050,30 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1069,30 +1093,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1396,9 +1396,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC595"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N23" sqref="N23"/>
+      <selection pane="bottomLeft" activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1457,22 +1457,22 @@
       <c r="A3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="69"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="15"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="67"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="75"/>
       <c r="I3" s="16"/>
-      <c r="J3" s="70" t="s">
+      <c r="J3" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="71"/>
+      <c r="K3" s="64"/>
       <c r="L3" s="17"/>
       <c r="M3" s="18" t="s">
         <v>33</v>
@@ -1496,7 +1496,7 @@
       <c r="T3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="63" t="s">
+      <c r="U3" s="71" t="s">
         <v>49</v>
       </c>
       <c r="V3" s="14" t="s">
@@ -1547,7 +1547,7 @@
       <c r="T4" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="64"/>
+      <c r="U4" s="72"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="31" t="s">
@@ -1559,20 +1559,20 @@
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1">
       <c r="A5" s="25"/>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="74"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="69"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="62"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
       <c r="N5" s="33" t="s">
@@ -1590,7 +1590,7 @@
       <c r="T5" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="U5" s="64"/>
+      <c r="U5" s="72"/>
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
@@ -1620,7 +1620,7 @@
       <c r="T6" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="U6" s="64" t="s">
+      <c r="U6" s="72" t="s">
         <v>50</v>
       </c>
       <c r="V6" s="14" t="s">
@@ -1634,13 +1634,13 @@
         <v>75</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="AB6" s="9" t="s">
         <v>76</v>
       </c>
       <c r="AC6" s="10" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1674,7 +1674,7 @@
       <c r="T7" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="U7" s="64"/>
+      <c r="U7" s="72"/>
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
       <c r="X7" s="29">
@@ -1713,7 +1713,7 @@
       <c r="T8" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="U8" s="64" t="s">
+      <c r="U8" s="72" t="s">
         <v>51</v>
       </c>
       <c r="V8" s="11"/>
@@ -1745,7 +1745,7 @@
         <v>100</v>
       </c>
       <c r="Q9" s="59" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R9" s="11"/>
       <c r="S9" s="29">
@@ -1754,7 +1754,7 @@
       <c r="T9" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="64"/>
+      <c r="U9" s="72"/>
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
       <c r="X9" s="29">
@@ -1779,12 +1779,12 @@
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="60" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M10" s="17"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
-      <c r="P10" s="61" t="s">
+      <c r="P10" s="69" t="s">
         <v>103</v>
       </c>
       <c r="Q10" s="40" t="s">
@@ -1830,7 +1830,7 @@
       <c r="M11" s="17"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
-      <c r="P11" s="62"/>
+      <c r="P11" s="70"/>
       <c r="Q11" s="44"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
@@ -1917,7 +1917,7 @@
         <v>87</v>
       </c>
       <c r="Y12" s="11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="15">
@@ -2061,7 +2061,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="54" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M15" s="17"/>
       <c r="N15" s="11" t="s">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="M16" s="17"/>
       <c r="N16" s="49" t="s">
@@ -2169,7 +2169,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="17" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="M17" s="17" t="s">
         <v>109</v>
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="M18" s="17"/>
       <c r="N18" s="49" t="s">
@@ -2830,15 +2830,15 @@
   </sheetData>
   <autoFilter ref="A12:T112" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="9">
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="P10:P11"/>
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/miniprogram/pages/猫咪档案.xlsx
+++ b/miniprogram/pages/猫咪档案.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1144F39D-8B2E-2943-9853-C2095E4692F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1FB510-CFE5-8A4A-9E69-8521A0F63E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24200" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="校内喵" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="122">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -535,6 +535,15 @@
   </si>
   <si>
     <t>2019年03月13号</t>
+  </si>
+  <si>
+    <t>狗狗</t>
+  </si>
+  <si>
+    <t>杜若</t>
+  </si>
+  <si>
+    <t>行为像狗</t>
   </si>
 </sst>
 </file>
@@ -691,7 +700,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -853,6 +862,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -876,7 +900,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1050,6 +1074,27 @@
     <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="19" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1074,26 +1119,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" xfId="19" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -1396,9 +1423,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC595"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S14" sqref="S14"/>
+      <selection pane="bottomLeft" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1457,22 +1484,22 @@
       <c r="A3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="62"/>
+      <c r="C3" s="69"/>
       <c r="D3" s="15"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="74"/>
-      <c r="H3" s="75"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="67"/>
       <c r="I3" s="16"/>
-      <c r="J3" s="63" t="s">
+      <c r="J3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="64"/>
+      <c r="K3" s="71"/>
       <c r="L3" s="17"/>
       <c r="M3" s="18" t="s">
         <v>33</v>
@@ -1496,7 +1523,7 @@
       <c r="T3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="71" t="s">
+      <c r="U3" s="63" t="s">
         <v>49</v>
       </c>
       <c r="V3" s="14" t="s">
@@ -1547,7 +1574,7 @@
       <c r="T4" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="72"/>
+      <c r="U4" s="64"/>
       <c r="V4" s="11"/>
       <c r="W4" s="11"/>
       <c r="X4" s="31" t="s">
@@ -1559,20 +1586,20 @@
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1">
       <c r="A5" s="25"/>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="67"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="74"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="61" t="s">
+      <c r="H5" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="62"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="69"/>
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
       <c r="N5" s="33" t="s">
@@ -1590,7 +1617,7 @@
       <c r="T5" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="U5" s="72"/>
+      <c r="U5" s="64"/>
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
@@ -1620,7 +1647,7 @@
       <c r="T6" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="U6" s="72" t="s">
+      <c r="U6" s="64" t="s">
         <v>50</v>
       </c>
       <c r="V6" s="14" t="s">
@@ -1674,7 +1701,7 @@
       <c r="T7" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="U7" s="72"/>
+      <c r="U7" s="64"/>
       <c r="V7" s="11"/>
       <c r="W7" s="11"/>
       <c r="X7" s="29">
@@ -1713,7 +1740,7 @@
       <c r="T8" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="U8" s="72" t="s">
+      <c r="U8" s="64" t="s">
         <v>51</v>
       </c>
       <c r="V8" s="11"/>
@@ -1754,7 +1781,7 @@
       <c r="T9" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="72"/>
+      <c r="U9" s="64"/>
       <c r="V9" s="11"/>
       <c r="W9" s="11"/>
       <c r="X9" s="29">
@@ -1784,7 +1811,7 @@
       <c r="M10" s="17"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
-      <c r="P10" s="69" t="s">
+      <c r="P10" s="61" t="s">
         <v>103</v>
       </c>
       <c r="Q10" s="40" t="s">
@@ -1800,10 +1827,10 @@
       <c r="U10" s="42"/>
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
-      <c r="X10" s="31">
+      <c r="X10" s="29">
         <v>5</v>
       </c>
-      <c r="Y10" s="32" t="s">
+      <c r="Y10" s="38" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1830,18 +1857,22 @@
       <c r="M11" s="17"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
-      <c r="P11" s="70"/>
+      <c r="P11" s="62"/>
       <c r="Q11" s="44"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
-      <c r="U11" s="43" t="s">
+      <c r="U11" s="76" t="s">
         <v>108</v>
       </c>
       <c r="V11" s="11"/>
       <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
+      <c r="X11" s="31">
+        <v>6</v>
+      </c>
+      <c r="Y11" s="32" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="12" spans="1:29">
       <c r="A12" s="25" t="s">
@@ -2250,7 +2281,32 @@
       <c r="X18" s="11"/>
       <c r="Y18" s="11"/>
     </row>
-    <row r="19" spans="1:25" customFormat="1" ht="15"/>
+    <row r="19" spans="1:25" customFormat="1" ht="15">
+      <c r="C19" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="11">
+        <v>0</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="I19" s="35">
+        <v>1</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="11">
+        <v>1</v>
+      </c>
+      <c r="N19" s="49" t="s">
+        <v>121</v>
+      </c>
+    </row>
     <row r="20" spans="1:25" customFormat="1" ht="15"/>
     <row r="21" spans="1:25" customFormat="1" ht="15"/>
     <row r="22" spans="1:25" customFormat="1" ht="15"/>
@@ -2830,15 +2886,15 @@
   </sheetData>
   <autoFilter ref="A12:T112" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="9">
-    <mergeCell ref="U3:U5"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="P10:P11"/>
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
